--- a/design/Excel/excel/主动技能表_activeSkills.xlsx
+++ b/design/Excel/excel/主动技能表_activeSkills.xlsx
@@ -47,6 +47,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+美术资源路径</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E1" authorId="0">
       <text>
         <r>
@@ -1212,7 +1238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>id</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -1290,20 +1316,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>小哥技能1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>小哥技能2</t>
-  </si>
-  <si>
-    <t>小哥技能3</t>
-  </si>
-  <si>
-    <t>小哥能量技</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>i</t>
     </r>
@@ -1773,6 +1785,171 @@
   </si>
   <si>
     <t>伤害效果组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小哥攻击敌方生命值最高的敌人，对其造成20%当前生命值的伤害。消耗5点能量，冷却时间10秒。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小哥使用近战武器攻击敌人，造成1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00%攻击力的伤害</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡一指</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>横扫</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自身周围的敌人造成180%（+80）点攻击力的伤害</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次强力的攻击，对目标造成200%（+120）点攻击力的伤害，并使其昏迷1秒</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>upian1</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>upian2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>upian3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>upian4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#20</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#50</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#5</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ttack1</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1931,7 +2108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1976,6 +2153,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2271,16 +2457,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="24.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.125" style="16" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
     <col min="8" max="8" width="9" style="7"/>
     <col min="9" max="15" width="9" style="1"/>
@@ -2311,7 +2497,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -2326,40 +2512,40 @@
         <v>9</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="T1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -2369,7 +2555,7 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="F2" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G2" s="13"/>
       <c r="K2" s="13" t="s">
@@ -2382,167 +2568,167 @@
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
       <c r="P2" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
       <c r="W2" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="X2" s="13"/>
     </row>
     <row r="3" spans="1:24" s="3" customFormat="1">
       <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="I3" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="F4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="H4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="K4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="M4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="11" t="s">
+      <c r="O4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="U4" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -2552,51 +2738,139 @@
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>100</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9">
+        <v>1</v>
+      </c>
+      <c r="S5" s="15">
+        <v>1</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
+      <c r="B6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
+      <c r="B7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="10" spans="1:24">
+      <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:24">
-      <c r="J11" s="4"/>
+    <row r="14" spans="1:24">
+      <c r="E14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/Excel/excel/主动技能表_activeSkills.xlsx
+++ b/design/Excel/excel/主动技能表_activeSkills.xlsx
@@ -1233,23 +1233,203 @@
         </r>
       </text>
     </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+前端显示组</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+施法限制</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:
+目标组</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+特效组</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+伤害效果组</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+数值组</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+buff</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>组</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>id</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>技能名称</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>技能说明</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1265,55 +1445,43 @@
       </rPr>
       <t>con</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>技能动作</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>飞行特效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>特效组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端显示组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>目标选择</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>技能CD</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>技能范围</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>消耗资源</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>关联被动</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>小哥普攻</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1329,7 +1497,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1345,7 +1513,7 @@
       </rPr>
       <t>ame</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1361,7 +1529,7 @@
       </rPr>
       <t>ote</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1377,7 +1545,7 @@
       </rPr>
       <t>con</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1393,7 +1561,7 @@
       </rPr>
       <t>killType</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1419,7 +1587,7 @@
       </rPr>
       <t>esources</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1435,7 +1603,7 @@
       </rPr>
       <t>killCd</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1451,11 +1619,11 @@
       </rPr>
       <t>killAction</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>passiveId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1491,19 +1659,19 @@
       </rPr>
       <t>election</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>flyEffects</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>releaseEffects</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>命中特效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1519,23 +1687,23 @@
       </rPr>
       <t>itEffects</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>skillRange</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>施法特效</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>计算公式</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>formula</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1551,7 +1719,7 @@
       </rPr>
       <t>alue1</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1585,30 +1753,30 @@
   </si>
   <si>
     <t>参数1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>参数3</t>
   </si>
   <si>
     <t>参数2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>自身buff</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>目标buff</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>selfBuff</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>targetBuff</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1624,19 +1792,15 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>暂停时长</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1652,7 +1816,7 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1695,15 +1859,11 @@
       </rPr>
       <t>uration</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法限制</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1719,19 +1879,19 @@
       </rPr>
       <t>Type</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>伤害范围</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>damageRange</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1747,15 +1907,11 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>伤害数量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1781,15 +1937,11 @@
       </rPr>
       <t>Nunber</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害效果组</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>小哥攻击敌方生命值最高的敌人，对其造成20%当前生命值的伤害。消耗5点能量，冷却时间10秒。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1805,27 +1957,27 @@
       </rPr>
       <t>00%攻击力的伤害</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>死亡一指</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>斩击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>横扫</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>对自身周围的敌人造成180%（+80）点攻击力的伤害</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>一次强力的攻击，对目标造成200%（+120）点攻击力的伤害，并使其昏迷1秒</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1841,7 +1993,7 @@
       </rPr>
       <t>upian1</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1902,7 +2054,7 @@
       </rPr>
       <t>#20</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1918,7 +2070,7 @@
       </rPr>
       <t>#50</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1934,7 +2086,7 @@
       </rPr>
       <t>#5</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1950,14 +2102,14 @@
       </rPr>
       <t>ttack1</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1965,6 +2117,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2108,38 +2267,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2148,20 +2310,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2459,14 +2621,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="71.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="71.125" style="14" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
     <col min="8" max="8" width="9" style="7"/>
     <col min="9" max="15" width="9" style="1"/>
@@ -2491,244 +2653,230 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="T1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="B2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="F2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="K2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
     </row>
     <row r="3" spans="1:24" s="3" customFormat="1">
       <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="S3" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="H4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="K4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="M4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="11" t="s">
+      <c r="O4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="W4" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -2736,13 +2884,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>68</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2777,14 +2925,14 @@
       <c r="R5" s="9">
         <v>1</v>
       </c>
-      <c r="S5" s="15">
-        <v>1</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>75</v>
+      <c r="S5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="16">
+        <v>10000</v>
       </c>
       <c r="U5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
@@ -2800,67 +2948,67 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>69</v>
+      <c r="B6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>72</v>
+      <c r="F6" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>70</v>
+      <c r="B7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>73</v>
+      <c r="F7" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>71</v>
+      <c r="B8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>74</v>
+      <c r="F8" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="J10" s="4"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="E14" s="15"/>
+      <c r="E14" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2872,7 +3020,7 @@
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="M2:O2"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2887,7 +3035,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -2901,7 +3049,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/design/Excel/excel/主动技能表_activeSkills.xlsx
+++ b/design/Excel/excel/主动技能表_activeSkills.xlsx
@@ -1418,7 +1418,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>id</t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -1480,10 +1480,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>小哥普攻</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>i</t>
     </r>
@@ -1940,10 +1936,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>小哥攻击敌方生命值最高的敌人，对其造成20%当前生命值的伤害。消耗5点能量，冷却时间10秒。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>小哥使用近战武器攻击敌人，造成1</t>
     </r>
@@ -1960,26 +1952,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>死亡一指</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>斩击</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>横扫</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>对自身周围的敌人造成180%（+80）点攻击力的伤害</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次强力的攻击，对目标造成200%（+120）点攻击力的伤害，并使其昏迷1秒</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>t</t>
     </r>
@@ -2027,21 +2003,6 @@
   </si>
   <si>
     <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>upian4</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>1</t>
     </r>
     <r>
@@ -2074,22 +2035,6 @@
   </si>
   <si>
     <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>#5</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>a</t>
     </r>
     <r>
@@ -2102,6 +2047,34 @@
       </rPr>
       <t>ttack1</t>
     </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨力重击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>霍根用巨剑猛击前方的敌人，被击中的敌人受到2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00%攻击力的物理伤害和眩晕效果</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍根用剑将前方的敌人挑起，敌人受到150%攻击力的物理伤害并且被击飞</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -2267,7 +2240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2319,11 +2292,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2619,10 +2601,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2659,7 +2644,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -2674,223 +2659,223 @@
         <v>7</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
     </row>
     <row r="3" spans="1:24" s="3" customFormat="1">
       <c r="A3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="G3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="O3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="T3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="X3" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="O4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="W4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
+      <c r="B5" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2916,6 +2901,15 @@
       <c r="L5" s="1">
         <v>10</v>
       </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
       <c r="P5" s="9">
         <v>0</v>
       </c>
@@ -2926,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="T5" s="16">
         <v>10000</v>
@@ -2948,20 +2942,74 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>59</v>
+      <c r="B6" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <v>100</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>1</v>
+      </c>
+      <c r="R6" s="17">
+        <v>1</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" s="17">
+        <v>20000</v>
+      </c>
+      <c r="U6" s="17">
+        <v>0</v>
+      </c>
+      <c r="V6" s="17">
+        <v>0</v>
+      </c>
+      <c r="W6" s="17">
+        <v>0</v>
+      </c>
+      <c r="X6" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -2969,46 +3017,80 @@
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>57</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
+        <v>100</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0</v>
+      </c>
+      <c r="N7" s="17">
+        <v>0</v>
+      </c>
+      <c r="O7" s="17">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>1</v>
+      </c>
+      <c r="R7" s="17">
+        <v>1</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="17">
+        <v>15000</v>
+      </c>
+      <c r="U7" s="17">
+        <v>0</v>
+      </c>
+      <c r="V7" s="17">
+        <v>0</v>
+      </c>
+      <c r="W7" s="17">
+        <v>0</v>
+      </c>
+      <c r="X7" s="17">
+        <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>67</v>
-      </c>
+    <row r="9" spans="1:24">
+      <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:24">
-      <c r="J10" s="4"/>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="E14" s="13"/>
+    <row r="13" spans="1:24">
+      <c r="E13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/design/Excel/excel/主动技能表_activeSkills.xlsx
+++ b/design/Excel/excel/主动技能表_activeSkills.xlsx
@@ -1413,23 +1413,49 @@
         </r>
       </text>
     </comment>
+    <comment ref="C16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+比如说队伍来到一个门前，需要开一个机关才能开门。然后需要玩家选择队伍中的一张卡牌来进行解锁机关（结果的过程不需要玩家操作）。如果解锁失败就扣血，或者会触发一些类似暗箭之类的机关。</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
   <si>
     <t>id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>技能名称</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>技能说明</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1445,39 +1471,39 @@
       </rPr>
       <t>con</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>技能动作</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>飞行特效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>目标选择</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>技能CD</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>技能范围</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>消耗资源</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>关联被动</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1493,7 +1519,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1509,7 +1535,7 @@
       </rPr>
       <t>ame</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1525,7 +1551,7 @@
       </rPr>
       <t>ote</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1541,7 +1567,7 @@
       </rPr>
       <t>con</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1557,7 +1583,7 @@
       </rPr>
       <t>killType</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1583,7 +1609,7 @@
       </rPr>
       <t>esources</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1599,7 +1625,7 @@
       </rPr>
       <t>killCd</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1615,11 +1641,11 @@
       </rPr>
       <t>killAction</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>passiveId</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1655,19 +1681,19 @@
       </rPr>
       <t>election</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>flyEffects</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>releaseEffects</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>命中特效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1683,23 +1709,23 @@
       </rPr>
       <t>itEffects</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>skillRange</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>施法特效</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>计算公式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>formula</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1715,7 +1741,7 @@
       </rPr>
       <t>alue1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1749,30 +1775,30 @@
   </si>
   <si>
     <t>参数1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>参数3</t>
   </si>
   <si>
     <t>参数2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>自身buff</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>目标buff</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>selfBuff</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>targetBuff</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1788,15 +1814,15 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>暂停时长</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1812,7 +1838,7 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1855,11 +1881,11 @@
       </rPr>
       <t>uration</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1875,19 +1901,19 @@
       </rPr>
       <t>Type</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>伤害范围</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>damageRange</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1903,11 +1929,11 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>伤害数量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1933,7 +1959,7 @@
       </rPr>
       <t>Nunber</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1949,11 +1975,11 @@
       </rPr>
       <t>00%攻击力的伤害</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>斩击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1969,7 +1995,7 @@
       </rPr>
       <t>upian1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2015,7 +2041,7 @@
       </rPr>
       <t>#20</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2031,7 +2057,7 @@
       </rPr>
       <t>#50</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2047,15 +2073,15 @@
       </rPr>
       <t>ttack1</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>普攻</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>巨力重击</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2071,18 +2097,102 @@
       </rPr>
       <t>00%攻击力的物理伤害和眩晕效果</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>霍根用剑将前方的敌人挑起，敌人受到150%攻击力的物理伤害并且被击飞</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>张起灵使用近战武器攻击敌人，造成1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00%攻击力的伤害。</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>在墓穴中的视野提高</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：夜视</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：斩击</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量：血指</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高对虫、鬼魂、僵尸敌人造成的伤害。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：双指探洞</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>更容易解除陷阱，受到陷阱攻击时闪避几率提高</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：血脉压制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：无敌斩</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>张起灵施展迅捷的身法快速在敌人中穿梭，无法被选中并且发起5次攻击，每次攻击造成150%攻击力的伤害。同一个目标可以被多次攻击。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>张起灵对目标发起攻击。造成180%的伤害。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：洞悉弱点</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：洞悉弱点</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标发起攻击时，每次普攻都会使其受到的伤害提高1%，最多可叠加5次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>张起灵攻击场上剩余生命值最多的敌人，造成300%攻击力的伤害。对鬼魂和僵尸敌人额外造成10%当前生命值的伤害。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>张起灵向前方快速斩出3道刀气，每道刀气对命中的第一个敌人造成120%攻击力的伤害，对后续的目标造成60%攻击力的伤害。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2090,6 +2200,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2240,38 +2357,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2280,25 +2400,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2601,18 +2724,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X13" sqref="X13"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="71.125" style="14" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
     <col min="8" max="8" width="9" style="7"/>
@@ -2696,25 +2820,25 @@
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" spans="1:24" s="3" customFormat="1">
       <c r="A3" s="5" t="s">
@@ -2868,7 +2992,7 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -2942,10 +3066,10 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -3019,7 +3143,7 @@
       <c r="B7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -3089,8 +3213,78 @@
     <row r="9" spans="1:24">
       <c r="J9" s="4"/>
     </row>
+    <row r="11" spans="1:24">
+      <c r="B11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="B12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="13" spans="1:24">
+      <c r="B13" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>82</v>
+      </c>
       <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="B14" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="B15" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="B16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3102,7 +3296,7 @@
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="M2:O2"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3117,7 +3311,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -3131,7 +3325,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/design/Excel/excel/主动技能表_activeSkills.xlsx
+++ b/design/Excel/excel/主动技能表_activeSkills.xlsx
@@ -1444,18 +1444,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>id</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>技能名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>技能说明</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1471,39 +1471,39 @@
       </rPr>
       <t>con</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>技能动作</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>飞行特效</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>目标选择</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>技能CD</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>技能范围</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>消耗资源</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>关联被动</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1519,7 +1519,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1535,7 +1535,7 @@
       </rPr>
       <t>ame</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1551,7 +1551,7 @@
       </rPr>
       <t>ote</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1567,7 +1567,7 @@
       </rPr>
       <t>con</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1583,7 +1583,7 @@
       </rPr>
       <t>killType</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1609,7 +1609,7 @@
       </rPr>
       <t>esources</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1625,7 +1625,7 @@
       </rPr>
       <t>killCd</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1641,11 +1641,11 @@
       </rPr>
       <t>killAction</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>passiveId</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1681,19 +1681,19 @@
       </rPr>
       <t>election</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>flyEffects</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>releaseEffects</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>命中特效</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1709,23 +1709,23 @@
       </rPr>
       <t>itEffects</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>skillRange</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>施法特效</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>计算公式</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>formula</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1741,7 +1741,7 @@
       </rPr>
       <t>alue1</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1775,30 +1775,30 @@
   </si>
   <si>
     <t>参数1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>参数3</t>
   </si>
   <si>
     <t>参数2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>自身buff</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>目标buff</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>selfBuff</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>targetBuff</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1814,15 +1814,15 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>暂停时长</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1838,7 +1838,7 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1881,11 +1881,11 @@
       </rPr>
       <t>uration</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1901,19 +1901,19 @@
       </rPr>
       <t>Type</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>伤害范围</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>damageRange</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1929,11 +1929,11 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>伤害数量</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1959,7 +1959,7 @@
       </rPr>
       <t>Nunber</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1975,11 +1975,11 @@
       </rPr>
       <t>00%攻击力的伤害</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>斩击</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1995,7 +1995,7 @@
       </rPr>
       <t>upian1</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2041,7 +2041,7 @@
       </rPr>
       <t>#20</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2057,7 +2057,7 @@
       </rPr>
       <t>#50</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2073,15 +2073,15 @@
       </rPr>
       <t>ttack1</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>普攻</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>巨力重击</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2097,15 +2097,15 @@
       </rPr>
       <t>00%攻击力的物理伤害和眩晕效果</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>霍根用剑将前方的敌人挑起，敌人受到150%攻击力的物理伤害并且被击飞</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>普攻</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2121,78 +2121,114 @@
       </rPr>
       <t>00%攻击力的伤害。</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>在墓穴中的视野提高</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>被动：夜视</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>主动：斩击</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>能量：血指</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>提高对虫、鬼魂、僵尸敌人造成的伤害。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>被动：双指探洞</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>更容易解除陷阱，受到陷阱攻击时闪避几率提高</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>被动：血脉压制</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>主动：无敌斩</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>张起灵施展迅捷的身法快速在敌人中穿梭，无法被选中并且发起5次攻击，每次攻击造成150%攻击力的伤害。同一个目标可以被多次攻击。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>张起灵对目标发起攻击。造成180%的伤害。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动：洞悉弱点</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>被动：洞悉弱点</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>对目标发起攻击时，每次普攻都会使其受到的伤害提高1%，最多可叠加5次</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>张起灵攻击场上剩余生命值最多的敌人，造成300%攻击力的伤害。对鬼魂和僵尸敌人额外造成10%当前生命值的伤害。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>张起灵向前方快速斩出3道刀气，每道刀气对命中的第一个敌人造成120%攻击力的伤害，对后续的目标造成60%攻击力的伤害。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：三连斩</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗节奏</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩击</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>三连斩</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌斩</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>前摇</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗时</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要具体模拟一下单张卡牌的战斗节奏。评估每个技能的CD、动作特效表现。场面上不能出现一张卡牌有很长的技能真空期。打起来要热闹</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2200,6 +2236,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2357,38 +2400,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2397,19 +2443,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2418,17 +2473,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2724,7 +2782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
@@ -2820,25 +2878,25 @@
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
     </row>
     <row r="3" spans="1:24" s="3" customFormat="1">
       <c r="A3" s="5" t="s">
@@ -3222,7 +3280,7 @@
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="27" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="23" t="s">
@@ -3230,11 +3288,11 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="B13" s="22" t="s">
-        <v>78</v>
+      <c r="B13" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="13"/>
     </row>
@@ -3251,7 +3309,7 @@
         <v>70</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -3261,33 +3319,172 @@
       <c r="C16" s="23" t="s">
         <v>73</v>
       </c>
+      <c r="E16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:7">
       <c r="B17" s="22" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>71</v>
       </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:7">
       <c r="B18" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>67</v>
       </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:7">
       <c r="B19" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>80</v>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="C21" s="26"/>
+      <c r="E21" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="E22" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="20">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="E23" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="G23" s="1">
+        <f>G22+F23</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="E24" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="G24" s="21">
+        <f t="shared" ref="G24:G30" si="0">G23+F24</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="E25" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="20">
+        <v>1</v>
+      </c>
+      <c r="G25" s="21">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="E26" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="G26" s="21">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="E27" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="G27" s="21">
+        <f t="shared" si="0"/>
+        <v>5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="E28" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="E29" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="G29" s="21">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="E30" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="20">
+        <v>2</v>
+      </c>
+      <c r="G30" s="21">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999993</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="E16:G20"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="W2:X2"/>
@@ -3296,7 +3493,7 @@
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="M2:O2"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3311,7 +3508,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -3325,7 +3522,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/design/Excel/excel/主动技能表_activeSkills.xlsx
+++ b/design/Excel/excel/主动技能表_activeSkills.xlsx
@@ -1447,15 +1447,15 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>id</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>技能名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>技能说明</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1471,39 +1471,39 @@
       </rPr>
       <t>con</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>技能动作</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>飞行特效</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>目标选择</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>技能CD</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>技能范围</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>消耗资源</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>关联被动</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1519,7 +1519,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1535,7 +1535,7 @@
       </rPr>
       <t>ame</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1551,7 +1551,7 @@
       </rPr>
       <t>ote</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1567,7 +1567,7 @@
       </rPr>
       <t>con</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1583,7 +1583,7 @@
       </rPr>
       <t>killType</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1609,7 +1609,7 @@
       </rPr>
       <t>esources</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1625,7 +1625,7 @@
       </rPr>
       <t>killCd</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1641,11 +1641,11 @@
       </rPr>
       <t>killAction</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>passiveId</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1681,19 +1681,19 @@
       </rPr>
       <t>election</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>flyEffects</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>releaseEffects</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>命中特效</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1709,23 +1709,23 @@
       </rPr>
       <t>itEffects</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>skillRange</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>施法特效</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>计算公式</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>formula</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1741,7 +1741,7 @@
       </rPr>
       <t>alue1</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1775,30 +1775,30 @@
   </si>
   <si>
     <t>参数1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>参数3</t>
   </si>
   <si>
     <t>参数2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>自身buff</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>目标buff</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>selfBuff</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>targetBuff</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1814,15 +1814,15 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>暂停时长</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1838,7 +1838,7 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1881,11 +1881,11 @@
       </rPr>
       <t>uration</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1901,19 +1901,19 @@
       </rPr>
       <t>Type</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>伤害范围</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>damageRange</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1929,11 +1929,11 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>伤害数量</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1959,7 +1959,7 @@
       </rPr>
       <t>Nunber</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1975,11 +1975,11 @@
       </rPr>
       <t>00%攻击力的伤害</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>斩击</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1995,7 +1995,7 @@
       </rPr>
       <t>upian1</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2041,7 +2041,7 @@
       </rPr>
       <t>#20</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2057,7 +2057,7 @@
       </rPr>
       <t>#50</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2073,15 +2073,15 @@
       </rPr>
       <t>ttack1</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>普攻</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>巨力重击</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2097,15 +2097,15 @@
       </rPr>
       <t>00%攻击力的物理伤害和眩晕效果</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>霍根用剑将前方的敌人挑起，敌人受到150%攻击力的物理伤害并且被击飞</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>普攻</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2121,114 +2121,126 @@
       </rPr>
       <t>00%攻击力的伤害。</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>在墓穴中的视野提高</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>被动：夜视</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>主动：斩击</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>能量：血指</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>提高对虫、鬼魂、僵尸敌人造成的伤害。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>被动：双指探洞</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>更容易解除陷阱，受到陷阱攻击时闪避几率提高</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>被动：血脉压制</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>主动：无敌斩</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>张起灵施展迅捷的身法快速在敌人中穿梭，无法被选中并且发起5次攻击，每次攻击造成150%攻击力的伤害。同一个目标可以被多次攻击。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>张起灵对目标发起攻击。造成180%的伤害。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>被动：洞悉弱点</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>对目标发起攻击时，每次普攻都会使其受到的伤害提高1%，最多可叠加5次</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>张起灵攻击场上剩余生命值最多的敌人，造成300%攻击力的伤害。对鬼魂和僵尸敌人额外造成10%当前生命值的伤害。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>张起灵向前方快速斩出3道刀气，每道刀气对命中的第一个敌人造成120%攻击力的伤害，对后续的目标造成60%攻击力的伤害。</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动：三连斩</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>战斗节奏</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>接触</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>普攻</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>斩击</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>三连斩</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>无敌斩</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>前摇</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>耗时</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>需要具体模拟一下单张卡牌的战斗节奏。评估每个技能的CD、动作特效表现。场面上不能出现一张卡牌有很长的技能真空期。打起来要热闹</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动：血刃封印</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>张起灵在刀上涂抹自身的鲜血，攻击造成250%攻击力的伤害，并且打断敌人施法并沉默2秒。如果成功打断目标施法，立即获得3点能量。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>张起灵对目标发起攻击。造成180%的伤害。斩击暴击后有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%几率额外触发一次攻击，造成95%攻击力的伤害。</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>对同一个目标发起攻击时，每次普攻都会使自身的暴击几率提高3%，最多可叠加5次。切换攻击目标时重置buff</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2236,6 +2248,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2400,38 +2419,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2440,19 +2462,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2461,32 +2492,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2788,14 +2813,14 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="71.125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="98.875" style="14" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
     <col min="8" max="8" width="9" style="7"/>
     <col min="9" max="15" width="9" style="1"/>
@@ -2878,25 +2903,25 @@
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
     </row>
     <row r="3" spans="1:24" s="3" customFormat="1">
       <c r="A3" s="5" t="s">
@@ -3280,24 +3305,24 @@
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>77</v>
+      <c r="C12" s="30" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="B13" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>81</v>
+      <c r="B13" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="29" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -3309,7 +3334,7 @@
         <v>70</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -3319,11 +3344,11 @@
       <c r="C16" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="E16" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="22" t="s">
@@ -3332,9 +3357,9 @@
       <c r="C17" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="22" t="s">
@@ -3343,41 +3368,41 @@
       <c r="C18" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+        <v>77</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="C21" s="26"/>
-      <c r="E21" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>90</v>
+      <c r="C21" s="24"/>
+      <c r="E21" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="E22" s="27" t="s">
-        <v>84</v>
+      <c r="E22" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="F22" s="20">
         <v>1</v>
@@ -3387,8 +3412,8 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="E23" s="27" t="s">
-        <v>85</v>
+      <c r="E23" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="F23" s="20">
         <v>0.8</v>
@@ -3399,8 +3424,8 @@
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="E24" s="27" t="s">
-        <v>85</v>
+      <c r="E24" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="F24" s="20">
         <v>0.8</v>
@@ -3411,8 +3436,8 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="E25" s="27" t="s">
-        <v>86</v>
+      <c r="E25" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="F25" s="20">
         <v>1</v>
@@ -3423,8 +3448,8 @@
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="E26" s="27" t="s">
-        <v>85</v>
+      <c r="E26" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="F26" s="20">
         <v>0.8</v>
@@ -3435,8 +3460,8 @@
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="E27" s="27" t="s">
-        <v>87</v>
+      <c r="E27" s="25" t="s">
+        <v>83</v>
       </c>
       <c r="F27" s="20">
         <v>1.2</v>
@@ -3447,8 +3472,8 @@
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="E28" s="27" t="s">
-        <v>85</v>
+      <c r="E28" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="F28" s="20">
         <v>0.8</v>
@@ -3459,8 +3484,8 @@
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="E29" s="27" t="s">
-        <v>85</v>
+      <c r="E29" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="F29" s="20">
         <v>0.8</v>
@@ -3471,8 +3496,8 @@
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="E30" s="27" t="s">
-        <v>88</v>
+      <c r="E30" s="25" t="s">
+        <v>84</v>
       </c>
       <c r="F30" s="20">
         <v>2</v>
@@ -3493,7 +3518,7 @@
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="M2:O2"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3508,7 +3533,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -3522,7 +3547,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/design/Excel/excel/主动技能表_activeSkills.xlsx
+++ b/design/Excel/excel/主动技能表_activeSkills.xlsx
@@ -176,10 +176,21 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>作者:</t>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
         </r>
         <r>
           <rPr>
@@ -210,26 +221,6 @@
             <family val="2"/>
           </rPr>
           <t>1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">，消耗怒气
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2</t>
         </r>
         <r>
           <rPr>
@@ -287,6 +278,32 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+数字越大，优先级越高</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="微软雅黑"/>
             <family val="2"/>
             <charset val="134"/>
@@ -308,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -351,71 +368,6 @@
           </rPr>
           <t>组
 仅普攻技能支持多个技能动作</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-被动技能</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ID#</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>被动技能</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ID</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>。
-每个被关联的被动技能独立计算概率，允许同时触发多个被动技能。</t>
         </r>
       </text>
     </comment>
@@ -441,39 +393,46 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-施法半径
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="微软雅黑"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>单位：cm / 厘米</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="微软雅黑"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">技能可施放的最大半径距离。
-</t>
+被动技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ID#</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>被动技能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ID</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>。
+每个被关联的被动技能独立计算概率，允许同时触发多个被动技能。</t>
         </r>
       </text>
     </comment>
@@ -488,6 +447,64 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+施法半径
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="微软雅黑"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t>单位：cm / 厘米</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="微软雅黑"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">技能可施放的最大半径距离。
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
           <t>作者</t>
         </r>
         <r>
@@ -900,7 +917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -928,7 +945,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -952,71 +969,6 @@
           <t xml:space="preserve">
 在技能的伤害范围内最多可命中敌人的数量。
 如果伤害范围内符合要求的敌人数量＞目标数量，则随机选取数量=目标数量的敌人。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">，造成伤害
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>，造成治疗</t>
         </r>
       </text>
     </comment>
@@ -1031,18 +983,57 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-引用公式表中的公式来计算具体数值</t>
+1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">，造成伤害
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，造成治疗</t>
         </r>
       </text>
     </comment>
@@ -1068,28 +1059,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-受属性加成的系数。
-不填默认为0
-不受属性加成的技能填</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>或者不填</t>
+引用公式表中的公式来计算具体数值</t>
         </r>
       </text>
     </comment>
@@ -1115,7 +1085,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-不填默认为</t>
+受属性加成的系数。
+不填默认为0
+不受属性加成的技能填</t>
         </r>
         <r>
           <rPr>
@@ -1125,6 +1097,16 @@
             <family val="2"/>
           </rPr>
           <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>或者不填</t>
         </r>
       </text>
     </comment>
@@ -1185,16 +1167,16 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-对施法者自身施加</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>buff</t>
+不填默认为</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
         </r>
       </text>
     </comment>
@@ -1220,6 +1202,41 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+对施法者自身施加</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>buff</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 对技能命中的目标施加</t>
         </r>
         <r>
@@ -1285,7 +1302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="L2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1301,7 +1318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="N2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1327,7 +1344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="Q2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1353,7 +1370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0">
+    <comment ref="T2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1379,7 +1396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0">
+    <comment ref="X2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1444,18 +1461,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
   <si>
     <t>id</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>技能名称</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>技能说明</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1471,39 +1488,39 @@
       </rPr>
       <t>con</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>技能动作</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>技能类型</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>飞行特效</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>目标选择</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>技能CD</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>技能范围</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>消耗资源</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>关联被动</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1519,7 +1536,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1535,7 +1552,7 @@
       </rPr>
       <t>ame</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1551,7 +1568,7 @@
       </rPr>
       <t>ote</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1567,7 +1584,7 @@
       </rPr>
       <t>con</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1583,7 +1600,7 @@
       </rPr>
       <t>killType</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1609,7 +1626,7 @@
       </rPr>
       <t>esources</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1625,7 +1642,7 @@
       </rPr>
       <t>killCd</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1641,11 +1658,11 @@
       </rPr>
       <t>killAction</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>passiveId</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1681,19 +1698,19 @@
       </rPr>
       <t>election</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>flyEffects</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>releaseEffects</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>命中特效</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1709,23 +1726,23 @@
       </rPr>
       <t>itEffects</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>skillRange</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>施法特效</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>计算公式</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>formula</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1741,7 +1758,7 @@
       </rPr>
       <t>alue1</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1775,30 +1792,30 @@
   </si>
   <si>
     <t>参数1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>参数3</t>
   </si>
   <si>
     <t>参数2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>自身buff</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>目标buff</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>selfBuff</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>targetBuff</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1814,15 +1831,15 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>暂停时长</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1838,7 +1855,7 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1881,11 +1898,11 @@
       </rPr>
       <t>uration</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>伤害类型</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1901,19 +1918,19 @@
       </rPr>
       <t>Type</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>伤害范围</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>damageRange</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1929,11 +1946,11 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>伤害数量</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1959,7 +1976,7 @@
       </rPr>
       <t>Nunber</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1975,11 +1992,11 @@
       </rPr>
       <t>00%攻击力的伤害</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>斩击</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1995,7 +2012,7 @@
       </rPr>
       <t>upian1</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2029,38 +2046,6 @@
   </si>
   <si>
     <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>#20</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>#50</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>a</t>
     </r>
     <r>
@@ -2073,15 +2058,15 @@
       </rPr>
       <t>ttack1</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>普攻</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>巨力重击</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2097,15 +2082,15 @@
       </rPr>
       <t>00%攻击力的物理伤害和眩晕效果</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>霍根用剑将前方的敌人挑起，敌人受到150%攻击力的物理伤害并且被击飞</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>普攻</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2121,99 +2106,95 @@
       </rPr>
       <t>00%攻击力的伤害。</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>在墓穴中的视野提高</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>被动：夜视</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>主动：斩击</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>能量：血指</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>提高对虫、鬼魂、僵尸敌人造成的伤害。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>被动：双指探洞</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>更容易解除陷阱，受到陷阱攻击时闪避几率提高</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>被动：血脉压制</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>主动：无敌斩</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>张起灵施展迅捷的身法快速在敌人中穿梭，无法被选中并且发起5次攻击，每次攻击造成150%攻击力的伤害。同一个目标可以被多次攻击。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>被动：洞悉弱点</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>张起灵攻击场上剩余生命值最多的敌人，造成300%攻击力的伤害。对鬼魂和僵尸敌人额外造成10%当前生命值的伤害。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>战斗节奏</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>接触</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>普攻</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>斩击</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>三连斩</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>无敌斩</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>前摇</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>耗时</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>需要具体模拟一下单张卡牌的战斗节奏。评估每个技能的CD、动作特效表现。场面上不能出现一张卡牌有很长的技能真空期。打起来要热闹</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>主动：血刃封印</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>张起灵在刀上涂抹自身的鲜血，攻击造成250%攻击力的伤害，并且打断敌人施法并沉默2秒。如果成功打断目标施法，立即获得3点能量。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2229,18 +2210,46 @@
       </rPr>
       <t>20%几率额外触发一次攻击，造成95%攻击力的伤害。</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>对同一个目标发起攻击时，每次普攻都会使自身的暴击几率提高3%，最多可叠加5次。切换攻击目标时重置buff</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张起灵在刀上涂抹自身的鲜血，优先攻击正在施法的敌人，攻击造成250%攻击力的伤害，并且打断敌人施法并沉默2秒。如果成功打断目标施法，立即获得3点能量。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能优先级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2248,6 +2257,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2419,9 +2442,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2429,61 +2461,64 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2492,26 +2527,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2807,28 +2845,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X30"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="98.875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="51.25" style="14" customWidth="1"/>
     <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="9" style="7"/>
-    <col min="9" max="15" width="9" style="1"/>
-    <col min="16" max="18" width="9" style="9"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="30"/>
+    <col min="9" max="9" width="9" style="7"/>
+    <col min="10" max="16" width="9" style="1"/>
+    <col min="17" max="19" width="9" style="9"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2850,80 +2889,84 @@
       <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
+    <row r="2" spans="1:25">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="29"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
     </row>
-    <row r="3" spans="1:24" s="3" customFormat="1">
+    <row r="3" spans="1:25" s="3" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
@@ -2945,23 +2988,23 @@
       <c r="G3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>40</v>
+      <c r="K3" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>41</v>
+      <c r="M3" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>41</v>
@@ -2969,20 +3012,20 @@
       <c r="O3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>40</v>
@@ -2990,14 +3033,17 @@
       <c r="V3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="6" t="s">
-        <v>41</v>
+      <c r="W3" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="X3" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="Y3" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -3019,64 +3065,67 @@
       <c r="G4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="Q4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="R4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="S4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="W4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="X4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="Y4" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>53</v>
@@ -3090,26 +3139,23 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="H5" s="30">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>100</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>10</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
@@ -3117,23 +3163,23 @@
       <c r="O5" s="1">
         <v>0</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="1">
         <v>0</v>
       </c>
       <c r="Q5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="9">
         <v>1</v>
       </c>
-      <c r="S5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="T5" s="16">
+      <c r="S5" s="9">
+        <v>1</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" s="16">
         <v>10000</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
@@ -3144,16 +3190,19 @@
       <c r="X5" s="1">
         <v>0</v>
       </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>56</v>
@@ -3161,29 +3210,29 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>58</v>
+      <c r="F6" s="13">
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>5000</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="30">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="K6" s="17">
+      <c r="L6" s="17">
         <v>100</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>10</v>
-      </c>
-      <c r="M6" s="17">
-        <v>0</v>
       </c>
       <c r="N6" s="17">
         <v>0</v>
@@ -3191,23 +3240,23 @@
       <c r="O6" s="17">
         <v>0</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="17">
         <v>0</v>
       </c>
-      <c r="Q6" s="17">
-        <v>1</v>
+      <c r="Q6" s="9">
+        <v>0</v>
       </c>
       <c r="R6" s="17">
         <v>1</v>
       </c>
-      <c r="S6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="T6" s="17">
+      <c r="S6" s="17">
+        <v>1</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" s="17">
         <v>20000</v>
-      </c>
-      <c r="U6" s="17">
-        <v>0</v>
       </c>
       <c r="V6" s="17">
         <v>0</v>
@@ -3216,10 +3265,13 @@
         <v>0</v>
       </c>
       <c r="X6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3227,7 +3279,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>57</v>
@@ -3235,29 +3287,29 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>59</v>
+      <c r="F7" s="13">
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>10000</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="30">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
         <v>1000</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>3</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="K7" s="17">
+      <c r="L7" s="17">
         <v>100</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>10</v>
-      </c>
-      <c r="M7" s="17">
-        <v>0</v>
       </c>
       <c r="N7" s="17">
         <v>0</v>
@@ -3265,23 +3317,23 @@
       <c r="O7" s="17">
         <v>0</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="17">
         <v>0</v>
       </c>
-      <c r="Q7" s="17">
-        <v>1</v>
+      <c r="Q7" s="9">
+        <v>0</v>
       </c>
       <c r="R7" s="17">
         <v>1</v>
       </c>
-      <c r="S7" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="17">
+      <c r="S7" s="17">
+        <v>1</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" s="17">
         <v>15000</v>
-      </c>
-      <c r="U7" s="17">
-        <v>0</v>
       </c>
       <c r="V7" s="17">
         <v>0</v>
@@ -3290,119 +3342,128 @@
         <v>0</v>
       </c>
       <c r="X7" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
-      <c r="J9" s="4"/>
+    <row r="9" spans="1:25">
+      <c r="K9" s="4"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:25">
       <c r="B11" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:25">
       <c r="B12" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>90</v>
+        <v>67</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
-      <c r="B13" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="30" t="s">
+    <row r="13" spans="1:25">
+      <c r="B13" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>89</v>
       </c>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:24">
-      <c r="B14" s="29" t="s">
+    <row r="14" spans="1:25">
+      <c r="B14" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="B15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="B16" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>76</v>
-      </c>
+      <c r="C19" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="28"/>
     </row>
-    <row r="15" spans="1:24">
-      <c r="B15" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>78</v>
-      </c>
+    <row r="20" spans="2:8">
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="28"/>
     </row>
-    <row r="16" spans="1:24">
-      <c r="B16" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:8">
       <c r="C21" s="24"/>
       <c r="E21" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>86</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:8">
       <c r="E22" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" s="20">
         <v>1</v>
@@ -3411,9 +3472,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:8">
       <c r="E23" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F23" s="20">
         <v>0.8</v>
@@ -3423,9 +3484,9 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:8">
       <c r="E24" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F24" s="20">
         <v>0.8</v>
@@ -3435,9 +3496,9 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:8">
       <c r="E25" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F25" s="20">
         <v>1</v>
@@ -3447,9 +3508,9 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:8">
       <c r="E26" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F26" s="20">
         <v>0.8</v>
@@ -3459,9 +3520,9 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:8">
       <c r="E27" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F27" s="20">
         <v>1.2</v>
@@ -3471,9 +3532,9 @@
         <v>5.6000000000000005</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:8">
       <c r="E28" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F28" s="20">
         <v>0.8</v>
@@ -3483,9 +3544,9 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:8">
       <c r="E29" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F29" s="20">
         <v>0.8</v>
@@ -3495,9 +3556,9 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:8">
       <c r="E30" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F30" s="20">
         <v>2</v>
@@ -3511,14 +3572,14 @@
   <mergeCells count="8">
     <mergeCell ref="E16:G20"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="X2:Y2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3533,7 +3594,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -3547,7 +3608,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
